--- a/Output/28_02_2023/EOR_AL112347.xlsx
+++ b/Output/28_02_2023/EOR_AL112347.xlsx
@@ -31,13 +31,13 @@
     <x:t>AL112347</x:t>
   </x:si>
   <x:si>
-    <x:t>Evento o traslado</x:t>
+    <x:t>Evento o ReubicaciónEvento o Reubicación...Evento o Traslado...No se han podido cargar todos los resultadosReintentarIntentándolo de nuevo...</x:t>
   </x:si>
   <x:si>
     <x:t>EOR</x:t>
   </x:si>
   <x:si>
-    <x:t>Olimpiadas o traslado a un nuevo edificio</x:t>
+    <x:t>Olimpiadas o mudarse a un nuevo edificio</x:t>
   </x:si>
 </x:sst>
 </file>
